--- a/00_additional_data/COS_timing.xlsx
+++ b/00_additional_data/COS_timing.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work with Jonathan on soil-branch transition 21_01_22\00_additional_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Laser-chamber-fluxes\00_additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B5E09E-88C8-4099-972E-65D3953D951E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{23E8DD5C-F25F-4FD5-BFDA-1D3174E9331E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600"/>
   </bookViews>
   <sheets>
-    <sheet name="Laser" sheetId="1" r:id="rId1"/>
+    <sheet name="timing" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -573,20 +572,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6ECD5E-923F-429A-88A5-344A05553D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.20703125" customWidth="1"/>
+    <col min="10" max="10" width="20.68359375" customWidth="1"/>
+    <col min="11" max="11" width="22.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -624,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11">
         <v>44571</v>
       </c>
@@ -644,11 +644,11 @@
         <v>0</v>
       </c>
       <c r="G2" s="12">
-        <f>MINUTE(K2)</f>
+        <f t="shared" ref="G2:G15" si="2">MINUTE(K2)</f>
         <v>5</v>
       </c>
       <c r="H2" s="12">
-        <f t="shared" ref="H2:H7" si="2">SECOND(K2)</f>
+        <f t="shared" ref="H2:H7" si="3">SECOND(K2)</f>
         <v>59</v>
       </c>
       <c r="I2" s="12"/>
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14">
         <f>A2</f>
         <v>44571</v>
@@ -683,11 +683,11 @@
         <v>0</v>
       </c>
       <c r="G3" s="15">
-        <f>MINUTE(K3)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="I3" s="15"/>
@@ -701,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14">
         <f>A3</f>
         <v>44571</v>
@@ -722,11 +722,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="15">
-        <f>MINUTE(K4)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H4" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="I4" s="15"/>
@@ -740,7 +740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <f>A4</f>
         <v>44571</v>
@@ -761,11 +761,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="15">
-        <f>MINUTE(K5)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="H5" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="I5" s="15"/>
@@ -779,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <f>A5</f>
         <v>44571</v>
@@ -800,11 +800,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="15">
-        <f>MINUTE(K6)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="I6" s="15"/>
@@ -818,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="16">
         <f>A6</f>
         <v>44571</v>
@@ -839,11 +839,11 @@
         <v>0</v>
       </c>
       <c r="G7" s="17">
-        <f>MINUTE(K7)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="I7" s="17"/>
@@ -857,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>44573</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
-        <f t="shared" ref="E8:E11" si="3">MINUTE(J8)</f>
+        <f t="shared" ref="E8:E11" si="4">MINUTE(J8)</f>
         <v>0</v>
       </c>
       <c r="F8" s="3">
@@ -877,11 +877,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <f>MINUTE(K8)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ref="H8:H11" si="4">SECOND(K8)</f>
+        <f t="shared" ref="H8:H11" si="5">SECOND(K8)</f>
         <v>59</v>
       </c>
       <c r="I8" s="3"/>
@@ -895,9 +895,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A21" si="5">A8</f>
+        <f t="shared" ref="A9:A21" si="6">A8</f>
         <v>44573</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -908,7 +908,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F9" s="6">
@@ -916,11 +916,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f>MINUTE(K9)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="I9" s="6"/>
@@ -934,9 +934,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44573</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -947,7 +947,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="F10" s="6">
@@ -955,11 +955,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="6">
-        <f>MINUTE(K10)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="I10" s="6"/>
@@ -973,9 +973,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44573</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -986,7 +986,7 @@
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="F11" s="22">
@@ -994,11 +994,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="22">
-        <f>MINUTE(K11)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H11" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="I11" s="22"/>
@@ -1012,9 +1012,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44573</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -1029,15 +1029,15 @@
         <v>30</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" ref="F12:F19" si="6">SECOND(J12)</f>
+        <f t="shared" ref="F12:F15" si="7">SECOND(J12)</f>
         <v>0</v>
       </c>
       <c r="G12" s="22">
-        <f>MINUTE(K12)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" ref="H12:H19" si="7">SECOND(K12)</f>
+        <f t="shared" ref="H12:H15" si="8">SECOND(K12)</f>
         <v>59</v>
       </c>
       <c r="I12" s="22"/>
@@ -1051,9 +1051,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44573</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1068,15 +1068,15 @@
         <v>40</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <f>MINUTE(K13)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="I13" s="6"/>
@@ -1090,9 +1090,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44573</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1107,15 +1107,15 @@
         <v>45</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f>MINUTE(K14)</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="I14" s="6"/>
@@ -1129,9 +1129,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44573</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1146,15 +1146,15 @@
         <v>55</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <f>MINUTE(K15)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="I15" s="9"/>
@@ -1168,7 +1168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>44745</v>
       </c>
@@ -1200,9 +1200,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44745</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -1233,9 +1233,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44745</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -1266,9 +1266,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44745</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -1299,9 +1299,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44745</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -1332,9 +1332,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44745</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -1365,9 +1365,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
-        <f>A20</f>
+        <f t="shared" ref="A22:A29" si="9">A20</f>
         <v>44745</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1398,9 +1398,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
-        <f>A21</f>
+        <f t="shared" si="9"/>
         <v>44745</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1431,9 +1431,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
-        <f>A22</f>
+        <f t="shared" si="9"/>
         <v>44745</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1464,9 +1464,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
-        <f>A23</f>
+        <f t="shared" si="9"/>
         <v>44745</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1497,9 +1497,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
-        <f>A24</f>
+        <f t="shared" si="9"/>
         <v>44745</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1530,9 +1530,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
-        <f>A25</f>
+        <f t="shared" si="9"/>
         <v>44745</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1563,9 +1563,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
-        <f>A26</f>
+        <f t="shared" si="9"/>
         <v>44745</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1596,9 +1596,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
-        <f>A27</f>
+        <f t="shared" si="9"/>
         <v>44745</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1629,7 +1629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <f>A21</f>
         <v>44745</v>

--- a/00_additional_data/COS_timing.xlsx
+++ b/00_additional_data/COS_timing.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="timing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>irr</t>
   </si>
@@ -57,9 +57,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>hour_type</t>
-  </si>
-  <si>
     <t>start_min</t>
   </si>
   <si>
@@ -81,37 +78,22 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>chamber</t>
-  </si>
-  <si>
     <t>soil</t>
   </si>
   <si>
     <t>branch</t>
   </si>
   <si>
-    <t>cont</t>
-  </si>
-  <si>
     <t>con</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>irr1</t>
-  </si>
-  <si>
-    <t>odd</t>
-  </si>
-  <si>
-    <t>con2</t>
-  </si>
-  <si>
-    <t>irr3</t>
-  </si>
-  <si>
-    <t>con4</t>
+    <t>num</t>
+  </si>
+  <si>
+    <t>cycle_length</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -573,1094 +555,1193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.20703125" customWidth="1"/>
-    <col min="10" max="10" width="20.68359375" customWidth="1"/>
-    <col min="11" max="11" width="22.83984375" customWidth="1"/>
+    <col min="12" max="12" width="20.68359375" customWidth="1"/>
+    <col min="13" max="13" width="22.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11">
         <v>44571</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
+      <c r="B2" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12">
-        <f t="shared" ref="E2:E7" si="0">MINUTE(J2)</f>
-        <v>0</v>
-      </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F7" si="1">SECOND(J2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G15" si="2">MINUTE(K2)</f>
+        <f t="shared" ref="G2:G7" si="0">MINUTE(L2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <f t="shared" ref="H2:H7" si="1">SECOND(L2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <f t="shared" ref="I2:I15" si="2">MINUTE(M2)</f>
         <v>5</v>
       </c>
-      <c r="H2" s="12">
-        <f t="shared" ref="H2:H7" si="3">SECOND(K2)</f>
-        <v>59</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
+        <f t="shared" ref="J2:J7" si="3">SECOND(M2)</f>
+        <v>59</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13">
         <v>44571</v>
       </c>
-      <c r="K2" s="13">
+      <c r="M2" s="13">
         <v>44571.004155092596</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14">
         <f>A2</f>
         <v>44571</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>0</v>
+      <c r="B3" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F3" s="15">
+      <c r="H3" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G3" s="15">
+      <c r="I3" s="15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H3" s="15">
+      <c r="J3" s="15">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="24">
+      <c r="K3" s="15"/>
+      <c r="L3" s="24">
         <v>44571.004166666666</v>
       </c>
-      <c r="K3" s="24">
+      <c r="M3" s="24">
         <v>44571.009710648148</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14">
         <f>A3</f>
         <v>44571</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>0</v>
+      <c r="B4" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15">
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F4" s="15">
+      <c r="H4" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="I4" s="15">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="H4" s="15">
+      <c r="J4" s="15">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="24">
+      <c r="K4" s="15"/>
+      <c r="L4" s="24">
         <v>44571.009722222225</v>
       </c>
-      <c r="K4" s="24">
+      <c r="M4" s="24">
         <v>44571.013877314814</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <f>A4</f>
         <v>44571</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
+      <c r="B5" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15">
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F5" s="15">
+      <c r="H5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="I5" s="15">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H5" s="15">
+      <c r="J5" s="15">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="24">
+      <c r="K5" s="15"/>
+      <c r="L5" s="24">
         <v>44571.013888888891</v>
       </c>
-      <c r="K5" s="24">
+      <c r="M5" s="24">
         <v>44571.018043981479</v>
       </c>
-      <c r="L5" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <f>A5</f>
         <v>44571</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
+      <c r="B6" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F6" s="15">
+      <c r="H6" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="15">
+      <c r="I6" s="15">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H6" s="15">
+      <c r="J6" s="15">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="24">
+      <c r="K6" s="15"/>
+      <c r="L6" s="24">
         <v>44571.018055555556</v>
       </c>
-      <c r="K6" s="24">
+      <c r="M6" s="24">
         <v>44571.023599537039</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="7" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="16">
         <f>A6</f>
         <v>44571</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>18</v>
+      <c r="B7" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17">
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F7" s="17">
+      <c r="H7" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="17">
-        <f t="shared" si="2"/>
+      <c r="I7" s="17">
         <v>49</v>
       </c>
-      <c r="H7" s="17">
+      <c r="J7" s="17">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18">
+      <c r="K7" s="17"/>
+      <c r="L7" s="18">
         <v>44571.023611111108</v>
       </c>
-      <c r="K7" s="18">
+      <c r="M7" s="18">
         <v>44571.034710648149</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>44573</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
+      <c r="B8" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <f t="shared" ref="E8:E11" si="4">MINUTE(J8)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <f>SECOND(J8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" ref="G8:G11" si="4">MINUTE(L8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f>SECOND(L8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" ref="H8:H11" si="5">SECOND(K8)</f>
-        <v>59</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
+        <f t="shared" ref="J8:J11" si="5">SECOND(M8)</f>
+        <v>59</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
         <v>44573.75</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <v>44573.756932870368</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A21" si="6">A8</f>
         <v>44573</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>1</v>
+      <c r="B9" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="F9" s="6">
-        <f>SECOND(J9)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
+        <f>SECOND(L9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H9" s="6">
+      <c r="J9" s="6">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7">
+      <c r="K9" s="6"/>
+      <c r="L9" s="7">
         <v>44573.756944444445</v>
       </c>
-      <c r="K9" s="7">
+      <c r="M9" s="7">
         <v>44573.760405092595</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <f t="shared" si="6"/>
         <v>44573</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
+      <c r="B10" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="F10" s="6">
-        <f>SECOND(J10)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
+        <f>SECOND(L10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H10" s="6">
+      <c r="J10" s="6">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7">
+      <c r="K10" s="6"/>
+      <c r="L10" s="7">
         <v>44573.760416666664</v>
       </c>
-      <c r="K10" s="7">
+      <c r="M10" s="7">
         <v>44573.76734953704</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="21">
         <f t="shared" si="6"/>
         <v>44573</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>1</v>
+      <c r="B11" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="22">
+      <c r="E11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="F11" s="22">
-        <f>SECOND(J11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="H11" s="22">
+        <f>SECOND(L11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="H11" s="22">
+      <c r="J11" s="22">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23">
+      <c r="K11" s="22"/>
+      <c r="L11" s="23">
         <v>44573.767361111109</v>
       </c>
-      <c r="K11" s="23">
+      <c r="M11" s="23">
         <v>44573.769432870373</v>
       </c>
-      <c r="L11" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="21">
         <f t="shared" si="6"/>
         <v>44573</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>0</v>
+      <c r="B12" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22">
-        <f>MINUTE(J12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>3</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22">
+        <f>MINUTE(L12)</f>
         <v>30</v>
       </c>
-      <c r="F12" s="22">
-        <f t="shared" ref="F12:F15" si="7">SECOND(J12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="22">
+      <c r="H12" s="22">
+        <f t="shared" ref="H12:H15" si="7">SECOND(L12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="H12" s="22">
-        <f t="shared" ref="H12:H15" si="8">SECOND(K12)</f>
-        <v>59</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
+        <f t="shared" ref="J12:J15" si="8">SECOND(M12)</f>
+        <v>59</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23">
         <v>44573.770833333336</v>
       </c>
-      <c r="K12" s="23">
+      <c r="M12" s="23">
         <v>44573.777766203704</v>
       </c>
-      <c r="L12" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <f t="shared" si="6"/>
         <v>44573</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>1</v>
+      <c r="B13" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <f>MINUTE(J13)</f>
+      <c r="E13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <f>MINUTE(L13)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="6">
+      <c r="H13" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G13" s="6">
+      <c r="I13" s="6">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="H13" s="6">
+      <c r="J13" s="6">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7">
+      <c r="K13" s="6"/>
+      <c r="L13" s="7">
         <v>44573.777777777781</v>
       </c>
-      <c r="K13" s="7">
+      <c r="M13" s="7">
         <v>44573.781238425923</v>
       </c>
-      <c r="L13" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <f t="shared" si="6"/>
         <v>44573</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
+      <c r="B14" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <f>MINUTE(J14)</f>
+        <v>16</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <f>MINUTE(L14)</f>
         <v>45</v>
       </c>
-      <c r="F14" s="6">
+      <c r="H14" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="I14" s="6">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="H14" s="6">
+      <c r="J14" s="6">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7">
+      <c r="K14" s="6"/>
+      <c r="L14" s="7">
         <v>44573.78125</v>
       </c>
-      <c r="K14" s="7">
+      <c r="M14" s="7">
         <v>44573.788182870368</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="15" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="8">
         <f t="shared" si="6"/>
         <v>44573</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>1</v>
+      <c r="B15" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="9">
-        <f>MINUTE(J15)</f>
+      <c r="E15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <f>MINUTE(L15)</f>
         <v>55</v>
       </c>
-      <c r="F15" s="9">
+      <c r="H15" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G15" s="9">
+      <c r="I15" s="9">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="H15" s="9">
+      <c r="J15" s="9">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10">
+      <c r="K15" s="9"/>
+      <c r="L15" s="10">
         <v>44573.788194444445</v>
       </c>
-      <c r="K15" s="10">
+      <c r="M15" s="10">
         <v>44573.790266203701</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>44745</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>0</v>
+      <c r="B16" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
       <c r="F16" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
         <v>7</v>
       </c>
-      <c r="H16" s="15">
-        <v>59</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" s="15">
+        <v>59</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14">
         <f t="shared" si="6"/>
         <v>44745</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>0</v>
+      <c r="B17" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2</v>
+      </c>
+      <c r="G17" s="15">
         <v>8</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
         <v>15</v>
       </c>
-      <c r="H17" s="15">
-        <v>59</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" s="15">
+        <v>59</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14">
         <f t="shared" si="6"/>
         <v>44745</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>0</v>
+      <c r="B18" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="F18" s="15">
+        <v>2</v>
+      </c>
+      <c r="G18" s="15">
         <v>16</v>
       </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
         <v>23</v>
       </c>
-      <c r="H18" s="15">
-        <v>59</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" s="15">
+        <v>59</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26">
         <f t="shared" si="6"/>
         <v>44745</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>19</v>
+      <c r="B19" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="27">
+      <c r="F19" s="15">
+        <v>2</v>
+      </c>
+      <c r="G19" s="27">
         <v>24</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="27">
         <v>31</v>
       </c>
-      <c r="H19" s="15">
-        <v>59</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" s="15">
+        <v>59</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26">
         <f t="shared" si="6"/>
         <v>44745</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>19</v>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="27">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="15">
+        <v>2</v>
+      </c>
+      <c r="G20" s="27">
         <v>32</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="27">
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="27">
         <v>39</v>
       </c>
-      <c r="H20" s="15">
-        <v>59</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" s="15">
+        <v>59</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14">
         <f t="shared" si="6"/>
         <v>44745</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>19</v>
+      <c r="B21" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="F21" s="15">
+        <v>2</v>
+      </c>
+      <c r="G21" s="15">
         <v>40</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
         <v>45</v>
       </c>
-      <c r="H21" s="15">
-        <v>59</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" s="15">
+        <v>59</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
         <f t="shared" ref="A22:A29" si="9">A20</f>
         <v>44745</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1</v>
+      <c r="B22" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6">
         <v>48</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
         <v>55</v>
       </c>
-      <c r="H22" s="6">
-        <v>59</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" s="6">
+        <v>59</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>21</v>
+      <c r="B23" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6">
         <v>56</v>
       </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>3</v>
-      </c>
       <c r="H23" s="6">
-        <v>59</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>63</v>
+      </c>
+      <c r="J23" s="6">
+        <v>59</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>1</v>
+      <c r="B24" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="6">
-        <v>4</v>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="F24" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="6">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="H24" s="6">
-        <v>59</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>71</v>
+      </c>
+      <c r="J24" s="6">
+        <v>59</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>23</v>
+      <c r="B25" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="6">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="F25" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="6">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="H25" s="6">
-        <v>59</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>79</v>
+      </c>
+      <c r="J25" s="6">
+        <v>59</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>1</v>
+      <c r="B26" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="6">
-        <v>20</v>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="F26" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="6">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H26" s="6">
-        <v>59</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>85</v>
+      </c>
+      <c r="J26" s="6">
+        <v>59</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>24</v>
+      <c r="B27" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="6">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="F27" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="6">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="H27" s="6">
-        <v>59</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>95</v>
+      </c>
+      <c r="J27" s="6">
+        <v>59</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>1</v>
+      <c r="B28" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="6">
-        <v>36</v>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="F28" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="6">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H28" s="6">
-        <v>59</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>103</v>
+      </c>
+      <c r="J28" s="6">
+        <v>59</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>25</v>
+      <c r="B29" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="6">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="D29" s="6">
+        <v>6</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="F29" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="6">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H29" s="6">
-        <v>59</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>111</v>
+      </c>
+      <c r="J29" s="6">
+        <v>59</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <f>A21</f>
         <v>44745</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>1</v>
+      <c r="B30" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="6">
-        <v>52</v>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="F30" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="6">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="H30" s="6">
-        <v>59</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="20" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>117</v>
+      </c>
+      <c r="J30" s="6">
+        <v>59</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_additional_data/COS_timing.xlsx
+++ b/00_additional_data/COS_timing.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/00_additional_data/COS_timing.xlsx
+++ b/00_additional_data/COS_timing.xlsx
@@ -84,9 +84,6 @@
     <t>branch</t>
   </si>
   <si>
-    <t>con</t>
-  </si>
-  <si>
     <t>num</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>ctr</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -579,13 +579,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="15">
         <v>2</v>
@@ -793,7 +793,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="15">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="17">
         <v>2</v>
@@ -965,7 +965,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6">
         <v>4</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6">
         <v>4</v>
@@ -1330,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="15">
         <v>2</v>
@@ -1366,7 +1366,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" s="15">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" s="15">
         <v>2</v>
@@ -1542,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" s="6">
         <v>4</v>
@@ -1682,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" s="6">
         <v>6</v>

--- a/00_additional_data/COS_timing.xlsx
+++ b/00_additional_data/COS_timing.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="19">
   <si>
     <t>irr</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>num</t>
-  </si>
-  <si>
-    <t>cycle_length</t>
   </si>
   <si>
     <t>status</t>
@@ -555,20 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.20703125" customWidth="1"/>
-    <col min="12" max="12" width="20.68359375" customWidth="1"/>
-    <col min="13" max="13" width="22.83984375" customWidth="1"/>
+    <col min="11" max="11" width="20.68359375" customWidth="1"/>
+    <col min="12" max="12" width="22.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -582,34 +579,31 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11">
         <v>44571</v>
       </c>
@@ -626,33 +620,30 @@
         <v>3</v>
       </c>
       <c r="F2" s="12">
-        <v>1</v>
+        <f t="shared" ref="F2:F7" si="0">MINUTE(K2)</f>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G7" si="0">MINUTE(L2)</f>
+        <f t="shared" ref="G2:G7" si="1">SECOND(K2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="12">
-        <f t="shared" ref="H2:H7" si="1">SECOND(L2)</f>
-        <v>0</v>
+        <f t="shared" ref="H2:H15" si="2">MINUTE(L2)</f>
+        <v>5</v>
       </c>
       <c r="I2" s="12">
-        <f t="shared" ref="I2:I15" si="2">MINUTE(M2)</f>
-        <v>5</v>
-      </c>
-      <c r="J2" s="12">
-        <f t="shared" ref="J2:J7" si="3">SECOND(M2)</f>
-        <v>59</v>
-      </c>
-      <c r="K2" s="12"/>
+        <f t="shared" ref="I2:I7" si="3">SECOND(L2)</f>
+        <v>59</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13">
+        <v>44571</v>
+      </c>
       <c r="L2" s="13">
-        <v>44571</v>
-      </c>
-      <c r="M2" s="13">
         <v>44571.004155092596</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14">
         <f>A2</f>
         <v>44571</v>
@@ -670,33 +661,30 @@
         <v>2</v>
       </c>
       <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="G3" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H3" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J3" s="15">
+      <c r="I3" s="15">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="24">
+        <v>44571.004166666666</v>
+      </c>
       <c r="L3" s="24">
-        <v>44571.004166666666</v>
-      </c>
-      <c r="M3" s="24">
         <v>44571.009710648148</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14">
         <f>A3</f>
         <v>44571</v>
@@ -714,33 +702,30 @@
         <v>3</v>
       </c>
       <c r="F4" s="15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H4" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="J4" s="15">
+      <c r="I4" s="15">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="24">
+        <v>44571.009722222225</v>
+      </c>
       <c r="L4" s="24">
-        <v>44571.009722222225</v>
-      </c>
-      <c r="M4" s="24">
         <v>44571.013877314814</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <f>A4</f>
         <v>44571</v>
@@ -749,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="15">
         <v>2</v>
@@ -758,33 +743,30 @@
         <v>3</v>
       </c>
       <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="G5" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="J5" s="15">
+      <c r="I5" s="15">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="24">
+        <v>44571.013888888891</v>
+      </c>
       <c r="L5" s="24">
-        <v>44571.013888888891</v>
-      </c>
-      <c r="M5" s="24">
         <v>44571.018043981479</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <f>A5</f>
         <v>44571</v>
@@ -793,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="15">
         <v>2</v>
@@ -802,33 +784,30 @@
         <v>2</v>
       </c>
       <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="G6" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="J6" s="15">
+      <c r="I6" s="15">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="24">
+        <v>44571.018055555556</v>
+      </c>
       <c r="L6" s="24">
-        <v>44571.018055555556</v>
-      </c>
-      <c r="M6" s="24">
         <v>44571.023599537039</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="16">
         <f>A6</f>
         <v>44571</v>
@@ -837,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="17">
         <v>2</v>
@@ -846,32 +825,29 @@
         <v>3</v>
       </c>
       <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I7" s="17">
-        <v>49</v>
-      </c>
-      <c r="J7" s="17">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18">
+        <v>44571.023611111108</v>
+      </c>
       <c r="L7" s="18">
-        <v>44571.023611111108</v>
-      </c>
-      <c r="M7" s="18">
         <v>44571.034710648149</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>44573</v>
       </c>
@@ -888,33 +864,30 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <f t="shared" ref="F8:F11" si="4">MINUTE(K8)</f>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ref="G8:G11" si="4">MINUTE(L8)</f>
+        <f>SECOND(K8)</f>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f>SECOND(L8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" ref="J8:J11" si="5">SECOND(M8)</f>
-        <v>59</v>
-      </c>
-      <c r="K8" s="3"/>
+      <c r="I8" s="3">
+        <f t="shared" ref="I8:I11" si="5">SECOND(L8)</f>
+        <v>59</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4">
+        <v>44573.75</v>
+      </c>
       <c r="L8" s="4">
-        <v>44573.75</v>
-      </c>
-      <c r="M8" s="4">
         <v>44573.756932870368</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A21" si="6">A8</f>
         <v>44573</v>
@@ -930,33 +903,30 @@
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="G9" s="6">
+        <f>SECOND(K9)</f>
+        <v>0</v>
+      </c>
       <c r="H9" s="6">
-        <f>SECOND(L9)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="J9" s="6">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7">
+        <v>44573.756944444445</v>
+      </c>
       <c r="L9" s="7">
-        <v>44573.756944444445</v>
-      </c>
-      <c r="M9" s="7">
         <v>44573.760405092595</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <f t="shared" si="6"/>
         <v>44573</v>
@@ -965,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6">
         <v>4</v>
@@ -974,33 +944,30 @@
         <v>2</v>
       </c>
       <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
+      <c r="G10" s="6">
+        <f>SECOND(K10)</f>
+        <v>0</v>
+      </c>
       <c r="H10" s="6">
-        <f>SECOND(L10)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J10" s="6">
+      <c r="I10" s="6">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7">
+        <v>44573.760416666664</v>
+      </c>
       <c r="L10" s="7">
-        <v>44573.760416666664</v>
-      </c>
-      <c r="M10" s="7">
         <v>44573.76734953704</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="21">
         <f t="shared" si="6"/>
         <v>44573</v>
@@ -1016,33 +983,30 @@
         <v>1</v>
       </c>
       <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
+      <c r="G11" s="22">
+        <f>SECOND(K11)</f>
+        <v>0</v>
+      </c>
       <c r="H11" s="22">
-        <f>SECOND(L11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="22">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="J11" s="22">
+      <c r="I11" s="22">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23">
+        <v>44573.767361111109</v>
+      </c>
       <c r="L11" s="23">
-        <v>44573.767361111109</v>
-      </c>
-      <c r="M11" s="23">
         <v>44573.769432870373</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="21">
         <f t="shared" si="6"/>
         <v>44573</v>
@@ -1060,33 +1024,30 @@
         <v>2</v>
       </c>
       <c r="F12" s="22">
-        <v>1</v>
+        <f>MINUTE(K12)</f>
+        <v>30</v>
       </c>
       <c r="G12" s="22">
-        <f>MINUTE(L12)</f>
-        <v>30</v>
+        <f t="shared" ref="G12:G15" si="7">SECOND(K12)</f>
+        <v>0</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" ref="H12:H15" si="7">SECOND(L12)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="22">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="J12" s="22">
-        <f t="shared" ref="J12:J15" si="8">SECOND(M12)</f>
-        <v>59</v>
-      </c>
-      <c r="K12" s="22"/>
+      <c r="I12" s="22">
+        <f t="shared" ref="I12:I15" si="8">SECOND(L12)</f>
+        <v>59</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23">
+        <v>44573.770833333336</v>
+      </c>
       <c r="L12" s="23">
-        <v>44573.770833333336</v>
-      </c>
-      <c r="M12" s="23">
         <v>44573.777766203704</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <f t="shared" si="6"/>
         <v>44573</v>
@@ -1102,33 +1063,30 @@
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <f>MINUTE(K13)</f>
+        <v>40</v>
       </c>
       <c r="G13" s="6">
-        <f>MINUTE(L13)</f>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="J13" s="6">
+      <c r="I13" s="6">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7">
+        <v>44573.777777777781</v>
+      </c>
       <c r="L13" s="7">
-        <v>44573.777777777781</v>
-      </c>
-      <c r="M13" s="7">
         <v>44573.781238425923</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <f t="shared" si="6"/>
         <v>44573</v>
@@ -1137,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="6">
         <v>4</v>
@@ -1146,33 +1104,30 @@
         <v>2</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <f>MINUTE(K14)</f>
+        <v>45</v>
       </c>
       <c r="G14" s="6">
-        <f>MINUTE(L14)</f>
-        <v>45</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="J14" s="6">
+      <c r="I14" s="6">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7">
+        <v>44573.78125</v>
+      </c>
       <c r="L14" s="7">
-        <v>44573.78125</v>
-      </c>
-      <c r="M14" s="7">
         <v>44573.788182870368</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="8">
         <f t="shared" si="6"/>
         <v>44573</v>
@@ -1188,33 +1143,30 @@
         <v>1</v>
       </c>
       <c r="F15" s="9">
-        <v>1</v>
+        <f>MINUTE(K15)</f>
+        <v>55</v>
       </c>
       <c r="G15" s="9">
-        <f>MINUTE(L15)</f>
-        <v>55</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="J15" s="9">
+      <c r="I15" s="9">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10">
+        <v>44573.788194444445</v>
+      </c>
       <c r="L15" s="10">
-        <v>44573.788194444445</v>
-      </c>
-      <c r="M15" s="10">
         <v>44573.790266203701</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11">
         <v>44745</v>
       </c>
@@ -1231,25 +1183,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="12">
         <v>0</v>
       </c>
       <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
         <v>7</v>
       </c>
-      <c r="J16" s="15">
-        <v>59</v>
-      </c>
-      <c r="K16" s="12"/>
+      <c r="I16" s="15">
+        <v>59</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14">
         <f t="shared" si="6"/>
         <v>44745</v>
@@ -1267,25 +1216,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G17" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I17" s="15">
-        <v>15</v>
-      </c>
-      <c r="J17" s="15">
-        <v>59</v>
-      </c>
-      <c r="K17" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14">
         <f t="shared" si="6"/>
         <v>44745</v>
@@ -1303,25 +1249,22 @@
         <v>3</v>
       </c>
       <c r="F18" s="15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G18" s="15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H18" s="15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I18" s="15">
-        <v>23</v>
-      </c>
-      <c r="J18" s="15">
-        <v>59</v>
-      </c>
-      <c r="K18" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26">
         <f t="shared" si="6"/>
         <v>44745</v>
@@ -1330,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="15">
         <v>2</v>
@@ -1338,26 +1281,23 @@
       <c r="E19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="15">
-        <v>2</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="F19" s="27">
         <v>24</v>
       </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="27">
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="27">
         <v>31</v>
       </c>
-      <c r="J19" s="15">
-        <v>59</v>
-      </c>
-      <c r="K19" s="27"/>
+      <c r="I19" s="15">
+        <v>59</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26">
         <f t="shared" si="6"/>
         <v>44745</v>
@@ -1366,7 +1306,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="15">
         <v>2</v>
@@ -1374,26 +1314,23 @@
       <c r="E20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="15">
-        <v>2</v>
-      </c>
-      <c r="G20" s="27">
+      <c r="F20" s="27">
         <v>32</v>
       </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27">
         <v>39</v>
       </c>
-      <c r="J20" s="15">
-        <v>59</v>
-      </c>
-      <c r="K20" s="27"/>
+      <c r="I20" s="15">
+        <v>59</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14">
         <f t="shared" si="6"/>
         <v>44745</v>
@@ -1402,7 +1339,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="15">
         <v>2</v>
@@ -1411,25 +1348,22 @@
         <v>3</v>
       </c>
       <c r="F21" s="15">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G21" s="15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H21" s="15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I21" s="15">
-        <v>45</v>
-      </c>
-      <c r="J21" s="15">
-        <v>59</v>
-      </c>
-      <c r="K21" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="25"/>
       <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
         <f t="shared" ref="A22:A29" si="9">A20</f>
         <v>44745</v>
@@ -1445,25 +1379,22 @@
         <v>1</v>
       </c>
       <c r="F22" s="6">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="G22" s="6">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H22" s="6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I22" s="6">
-        <v>55</v>
-      </c>
-      <c r="J22" s="6">
-        <v>59</v>
-      </c>
-      <c r="K22" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
@@ -1481,25 +1412,22 @@
         <v>2</v>
       </c>
       <c r="F23" s="6">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G23" s="6">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H23" s="6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I23" s="6">
-        <v>63</v>
-      </c>
-      <c r="J23" s="6">
-        <v>59</v>
-      </c>
-      <c r="K23" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
@@ -1515,25 +1443,22 @@
         <v>1</v>
       </c>
       <c r="F24" s="6">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G24" s="6">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H24" s="6">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I24" s="6">
-        <v>71</v>
-      </c>
-      <c r="J24" s="6">
-        <v>59</v>
-      </c>
-      <c r="K24" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
@@ -1542,7 +1467,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="6">
         <v>4</v>
@@ -1551,25 +1476,22 @@
         <v>2</v>
       </c>
       <c r="F25" s="6">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G25" s="6">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H25" s="6">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I25" s="6">
-        <v>79</v>
-      </c>
-      <c r="J25" s="6">
-        <v>59</v>
-      </c>
-      <c r="K25" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
@@ -1585,25 +1507,22 @@
         <v>1</v>
       </c>
       <c r="F26" s="6">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G26" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H26" s="6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I26" s="6">
-        <v>85</v>
-      </c>
-      <c r="J26" s="6">
-        <v>59</v>
-      </c>
-      <c r="K26" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
@@ -1621,25 +1540,22 @@
         <v>2</v>
       </c>
       <c r="F27" s="6">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="G27" s="6">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H27" s="6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I27" s="6">
-        <v>95</v>
-      </c>
-      <c r="J27" s="6">
-        <v>59</v>
-      </c>
-      <c r="K27" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
@@ -1655,25 +1571,22 @@
         <v>1</v>
       </c>
       <c r="F28" s="6">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="G28" s="6">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H28" s="6">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I28" s="6">
-        <v>103</v>
-      </c>
-      <c r="J28" s="6">
-        <v>59</v>
-      </c>
-      <c r="K28" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
         <f t="shared" si="9"/>
         <v>44745</v>
@@ -1682,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="6">
         <v>6</v>
@@ -1691,25 +1604,22 @@
         <v>2</v>
       </c>
       <c r="F29" s="6">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="G29" s="6">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H29" s="6">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I29" s="6">
-        <v>111</v>
-      </c>
-      <c r="J29" s="6">
-        <v>59</v>
-      </c>
-      <c r="K29" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <f>A21</f>
         <v>44745</v>
@@ -1725,23 +1635,20 @@
         <v>1</v>
       </c>
       <c r="F30" s="6">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="G30" s="6">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H30" s="6">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I30" s="6">
-        <v>117</v>
-      </c>
-      <c r="J30" s="6">
-        <v>59</v>
-      </c>
-      <c r="K30" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
